--- a/Weekly Forecasts/Round_8.xlsx
+++ b/Weekly Forecasts/Round_8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Friday" sheetId="1" r:id="rId1"/>
@@ -498,9 +498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="F22" sqref="B1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -895,9 +895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O5" sqref="O5"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
